--- a/database/industries/folad/kave/official/quarterly.xlsx
+++ b/database/industries/folad/kave/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kave\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kave\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895A2212-6F40-4BB3-84FD-EC833D10D12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -93,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -521,8 +571,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +588,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -545,8 +605,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -555,8 +620,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -567,8 +637,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -579,8 +654,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -589,8 +669,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -611,8 +696,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -621,32 +721,52 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>46055</v>
+      </c>
+      <c r="F10" s="9">
+        <v>124162</v>
+      </c>
+      <c r="G10" s="9">
+        <v>305040</v>
+      </c>
+      <c r="H10" s="9">
+        <v>236694</v>
+      </c>
+      <c r="I10" s="9">
+        <v>178013</v>
+      </c>
+      <c r="J10" s="9">
         <v>143861</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>287904</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>108</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>542</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -665,10 +785,25 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -687,10 +822,25 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -709,10 +859,25 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -726,15 +891,30 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>44022</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>31817</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -745,62 +925,107 @@
         <v>0</v>
       </c>
       <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
         <v>5777</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
         <v>7532</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>3202</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6221</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8776</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5296</v>
+      </c>
+      <c r="I16" s="9">
+        <v>6877</v>
+      </c>
+      <c r="J16" s="9">
         <v>11441</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>921</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>6460</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>6486</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>49126</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>31456</v>
+      </c>
+      <c r="F17" s="11">
+        <v>46173</v>
+      </c>
+      <c r="G17" s="11">
+        <v>96168</v>
+      </c>
+      <c r="H17" s="11">
+        <v>56542</v>
+      </c>
+      <c r="I17" s="11">
+        <v>78485</v>
+      </c>
+      <c r="J17" s="11">
         <v>115194</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>73073</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>109504</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>127376</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>206724</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -819,52 +1044,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>322819</v>
+      </c>
+      <c r="F19" s="11">
+        <v>384141</v>
+      </c>
+      <c r="G19" s="11">
+        <v>459919</v>
+      </c>
+      <c r="H19" s="11">
+        <v>449016</v>
+      </c>
+      <c r="I19" s="11">
+        <v>261277</v>
+      </c>
+      <c r="J19" s="11">
         <v>409118</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>545548</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>986766</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>599767</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>705682</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>403532</v>
+      </c>
+      <c r="F20" s="13">
+        <v>560697</v>
+      </c>
+      <c r="G20" s="13">
+        <v>869903</v>
+      </c>
+      <c r="H20" s="13">
+        <v>747548</v>
+      </c>
+      <c r="I20" s="13">
+        <v>524652</v>
+      </c>
+      <c r="J20" s="13">
         <v>679614</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>907446</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>1108615</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>778193</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>1001248</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -873,8 +1143,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -883,8 +1158,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -893,10 +1173,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -915,8 +1200,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -925,10 +1225,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -936,41 +1241,71 @@
         <v>402</v>
       </c>
       <c r="F26" s="9">
+        <v>402</v>
+      </c>
+      <c r="G26" s="9">
+        <v>402</v>
+      </c>
+      <c r="H26" s="9">
+        <v>402</v>
+      </c>
+      <c r="I26" s="9">
+        <v>402</v>
+      </c>
+      <c r="J26" s="9">
+        <v>402</v>
+      </c>
+      <c r="K26" s="9">
         <v>453</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>453</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>453</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>1343</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1343</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1358</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1522</v>
+      </c>
+      <c r="I27" s="11">
         <v>1540</v>
       </c>
-      <c r="F27" s="11">
+      <c r="J27" s="11">
+        <v>1540</v>
+      </c>
+      <c r="K27" s="11">
         <v>1531</v>
       </c>
-      <c r="G27" s="11">
+      <c r="L27" s="11">
         <v>1531</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>1552</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>1552</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -979,8 +1314,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -989,8 +1329,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -999,8 +1344,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1009,6 +1359,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
